--- a/Financials/BlackRock.xlsx
+++ b/Financials/BlackRock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E17651-D327-874F-A654-8378FD26D937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650218E4-07AF-9A43-8ED2-EAB131E3EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>BlackRock</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -858,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -919,18 +953,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,20 +979,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,18 +1020,28 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2259,6 +2299,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1om4c&amp;q=XNYS%3aBLK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>BLACKROCK, INC. (XNYS:BLK)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1om4c</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>785.65</v>
+    <v>503.12360000000001</v>
+    <v>1.2902</v>
+    <v>0.36</v>
+    <v>5.4870000000000006E-4</v>
+    <v>-0.1</v>
+    <v>-1.5230000000000002E-4</v>
+    <v>USD</v>
+    <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
+    <v>19800</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
+    <v>659.06</v>
+    <v>Investment Banking &amp; Investment Services</v>
+    <v>Stock</v>
+    <v>45022.991158888282</v>
+    <v>0</v>
+    <v>653.98500000000001</v>
+    <v>98615172960</v>
+    <v>BLACKROCK, INC.</v>
+    <v>BLACKROCK, INC.</v>
+    <v>656.6</v>
+    <v>19.322199999999999</v>
+    <v>656.04</v>
+    <v>656.4</v>
+    <v>656.3</v>
+    <v>150236400</v>
+    <v>BLK</v>
+    <v>BLACKROCK, INC. (XNYS:BLK)</v>
+    <v>441769</v>
+    <v>726414</v>
+    <v>2006</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2559,10 +3039,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD92" sqref="AD92"/>
+      <selection pane="bottomRight" activeCell="AB116" sqref="AB116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2573,8 +3053,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1998</v>
@@ -2855,21 +3335,21 @@
         <v>22705000000</v>
       </c>
       <c r="AF3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AG3" s="19" t="s">
+      <c r="AH3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3172,16 +3652,16 @@
         <v>8787000000</v>
       </c>
       <c r="AF6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AH6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -3362,7 +3842,7 @@
     </row>
     <row r="9" spans="1:42" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3469,16 +3949,16 @@
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AF9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="19" t="s">
+      <c r="AH9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AI9" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
@@ -3740,21 +4220,21 @@
         <v>2147000000</v>
       </c>
       <c r="AF12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AG12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4040,16 +4520,16 @@
         <v>2298000000</v>
       </c>
       <c r="AF15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AG15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -4137,15 +4617,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH100/Z3</f>
-        <v>5.4719409164661776</v>
+        <v>5.5175501012700723</v>
       </c>
       <c r="AH16" s="30">
         <f>AH100/Z28</f>
-        <v>18.887601390498261</v>
+        <v>19.04503147161066</v>
       </c>
       <c r="AI16" s="31">
         <f>AH100/Z106</f>
-        <v>22.111688898937373</v>
+        <v>22.295992077775267</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4308,7 +4788,7 @@
         <v>151000000</v>
       </c>
       <c r="AF18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4390,14 +4870,14 @@
       <c r="Z19" s="10">
         <v>6837000000</v>
       </c>
-      <c r="AF19" s="67">
+      <c r="AF19" s="49">
         <f>Z40-Z56-Z61</f>
         <v>5557000000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5146,7 +5626,7 @@
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5655,7 +6135,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -9282,7 +9762,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:Z80" si="18">B79/B3</f>
@@ -9549,10 +10029,10 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH82" s="60"/>
+      <c r="AG82" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH82" s="54"/>
     </row>
     <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -9633,10 +10113,10 @@
       <c r="Z83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH83" s="62"/>
+      <c r="AG83" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH83" s="56"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9717,10 +10197,10 @@
       <c r="Z84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG84" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH84" s="24">
+      <c r="AG84" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH84" s="60">
         <f>Z17</f>
         <v>212000000</v>
       </c>
@@ -9804,10 +10284,10 @@
       <c r="Z85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH85" s="24">
+      <c r="AG85" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH85" s="60">
         <f>Z56</f>
         <v>1835000000</v>
       </c>
@@ -9891,10 +10371,10 @@
       <c r="Z86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH86" s="24">
+      <c r="AG86" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH86" s="60">
         <f>Z61</f>
         <v>7490000000</v>
       </c>
@@ -9978,10 +10458,10 @@
       <c r="Z87" s="10">
         <v>4956000000</v>
       </c>
-      <c r="AG87" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH87" s="33">
+      <c r="AG87" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH87" s="62">
         <f>AH84/(AH85+AH86)</f>
         <v>2.2734584450402145E-2</v>
       </c>
@@ -10065,17 +10545,17 @@
       <c r="Z88" s="1">
         <v>-533000000</v>
       </c>
-      <c r="AG88" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH88" s="24">
+      <c r="AG88" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH88" s="60">
         <f>Z27</f>
         <v>1296000000</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15">
         <f t="shared" ref="B89:Z89" si="19">(-1*B88)/B3</f>
@@ -10177,10 +10657,10 @@
         <f t="shared" si="19"/>
         <v>2.9821518491579477E-2</v>
       </c>
-      <c r="AG89" s="23" t="s">
+      <c r="AG89" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AH89" s="24">
+      <c r="AH89" s="60">
         <f>Z25</f>
         <v>6290000000</v>
       </c>
@@ -10189,7 +10669,7 @@
       <c r="AK89" s="15"/>
       <c r="AL89" s="15"/>
       <c r="AS89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AT89" s="24">
         <f>AL27</f>
@@ -10275,10 +10755,10 @@
       <c r="Z90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG90" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH90" s="33">
+      <c r="AG90" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH90" s="62">
         <f>AH88/AH89</f>
         <v>0.20604133545310016</v>
       </c>
@@ -10362,10 +10842,10 @@
       <c r="Z91" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AG91" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH91" s="35">
+      <c r="AG91" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH91" s="64">
         <f>AH87*(1-AH90)</f>
         <v>1.8050320309270004E-2</v>
       </c>
@@ -10449,10 +10929,10 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH92" s="62"/>
+      <c r="AG92" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH92" s="66"/>
     </row>
     <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -10533,10 +11013,10 @@
       <c r="Z93" s="1">
         <v>-15000000</v>
       </c>
-      <c r="AG93" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH93" s="36">
+      <c r="AG93" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH93" s="67">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10619,11 +11099,12 @@
       <c r="Z94" s="10">
         <v>-1130000000</v>
       </c>
-      <c r="AG94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH94" s="37">
-        <v>1.3</v>
+      <c r="AG94" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH94" s="68" cm="1">
+        <f t="array" ref="AH94">_FV(A1,"Beta")</f>
+        <v>1.2902</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -10705,10 +11186,10 @@
       <c r="Z95" s="1">
         <v>-750000000</v>
       </c>
-      <c r="AG95" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH95" s="36">
+      <c r="AG95" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH95" s="67">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10791,12 +11272,12 @@
       <c r="Z96" s="1">
         <v>576000000</v>
       </c>
-      <c r="AG96" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH96" s="35">
+      <c r="AG96" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH96" s="64">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
-        <v>9.6915000000000001E-2</v>
+        <v>9.6493110000000007E-2</v>
       </c>
     </row>
     <row r="97" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -10878,10 +11359,10 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH97" s="62"/>
+      <c r="AG97" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH97" s="66"/>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -10962,10 +11443,10 @@
       <c r="Z98" s="1">
         <v>-2990000000</v>
       </c>
-      <c r="AG98" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH98" s="24">
+      <c r="AG98" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH98" s="60">
         <f>AH85+AH86</f>
         <v>9325000000</v>
       </c>
@@ -11049,12 +11530,12 @@
       <c r="Z99" s="1">
         <v>54000000</v>
       </c>
-      <c r="AG99" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH99" s="33">
+      <c r="AG99" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH99" s="62">
         <f>AH98/AH102</f>
-        <v>8.7047841306884477E-2</v>
+        <v>8.6390448933740524E-2</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11136,11 +11617,12 @@
       <c r="Z100" s="10">
         <v>-5442000000</v>
       </c>
-      <c r="AG100" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH100" s="38">
-        <v>97800000000</v>
+      <c r="AG100" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH100" s="43" cm="1">
+        <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
+        <v>98615172960</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11222,12 +11704,12 @@
       <c r="Z101" s="1">
         <v>-291000000</v>
       </c>
-      <c r="AG101" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH101" s="33">
+      <c r="AG101" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH101" s="62">
         <f>AH100/AH102</f>
-        <v>0.91295215869311552</v>
+        <v>0.91360955106625952</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11309,12 +11791,12 @@
       <c r="Z102" s="10">
         <v>-1907000000</v>
       </c>
-      <c r="AG102" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH102" s="39">
+      <c r="AG102" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH102" s="69">
         <f>AH98+AH100</f>
-        <v>107125000000</v>
+        <v>107940172960</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11396,10 +11878,10 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH103" s="62"/>
+      <c r="AG103" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH103" s="56"/>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11481,16 +11963,16 @@
         <v>7433000000</v>
       </c>
       <c r="AG104" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH104" s="26">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>9.0049999877563056E-2</v>
+        <v>8.971640218300285E-2</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15">
@@ -11595,10 +12077,10 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
-      <c r="AG105" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH105" s="64"/>
+      <c r="AG105" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH105" s="58"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -11610,7 +12092,7 @@
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
       <c r="AS105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
@@ -11696,33 +12178,33 @@
       <c r="Z106" s="1">
         <v>4423000000</v>
       </c>
-      <c r="AA106" s="40">
+      <c r="AA106" s="32">
         <f>Z106*(1+$AH$106)</f>
         <v>4644949465.9571314</v>
       </c>
-      <c r="AB106" s="40">
+      <c r="AB106" s="32">
         <f t="shared" ref="AB106:AE106" si="25">AA106*(1+$AH$106)</f>
         <v>4878036523.0150213</v>
       </c>
-      <c r="AC106" s="40">
+      <c r="AC106" s="32">
         <f t="shared" si="25"/>
         <v>5122820063.870225</v>
       </c>
-      <c r="AD106" s="40">
+      <c r="AD106" s="32">
         <f t="shared" si="25"/>
         <v>5379887026.8750801</v>
       </c>
-      <c r="AE106" s="40">
+      <c r="AE106" s="32">
         <f t="shared" si="25"/>
         <v>5649853803.3898039</v>
       </c>
-      <c r="AF106" s="41" t="s">
+      <c r="AF106" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG106" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="AG106" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH106" s="43">
+      <c r="AH106" s="35">
         <f>(SUM(AA4:AE4)/5)</f>
         <v>5.0180751968603013E-2</v>
       </c>
@@ -11754,138 +12236,139 @@
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
-      <c r="AA107" s="41"/>
-      <c r="AB107" s="41"/>
-      <c r="AC107" s="41"/>
-      <c r="AD107" s="41"/>
-      <c r="AE107" s="44">
+      <c r="AA107" s="33"/>
+      <c r="AB107" s="33"/>
+      <c r="AC107" s="33"/>
+      <c r="AD107" s="33"/>
+      <c r="AE107" s="36">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>89025367553.797745</v>
-      </c>
-      <c r="AF107" s="45" t="s">
+        <v>89484272195.766876</v>
+      </c>
+      <c r="AF107" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG107" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="AG107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH107" s="47">
+      <c r="AH107" s="39">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA108" s="44">
+      <c r="AA108" s="36">
         <f t="shared" ref="AA108:AC108" si="26">AA107+AA106</f>
         <v>4644949465.9571314</v>
       </c>
-      <c r="AB108" s="44">
+      <c r="AB108" s="36">
         <f t="shared" si="26"/>
         <v>4878036523.0150213</v>
       </c>
-      <c r="AC108" s="44">
+      <c r="AC108" s="36">
         <f t="shared" si="26"/>
         <v>5122820063.870225</v>
       </c>
-      <c r="AD108" s="44">
+      <c r="AD108" s="36">
         <f>AD107+AD106</f>
         <v>5379887026.8750801</v>
       </c>
-      <c r="AE108" s="44">
+      <c r="AE108" s="36">
         <f>AE107+AE106</f>
-        <v>94675221357.187546</v>
-      </c>
-      <c r="AF108" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG108" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH108" s="49">
+        <v>95134125999.156677</v>
+      </c>
+      <c r="AF108" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG108" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH108" s="41">
         <f>AH104</f>
-        <v>9.0049999877563056E-2</v>
+        <v>8.971640218300285E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB109" s="66"/>
+      <c r="AA109" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB109" s="52"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA110" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB110" s="51">
+      <c r="AA110" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB110" s="43">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>77650643145.154129</v>
+        <v>78055629718.039368</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA111" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB111" s="51">
+      <c r="AA111" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB111" s="43">
         <f>Z40</f>
         <v>14882000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA112" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB112" s="51">
+      <c r="AA112" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB112" s="43">
         <f>AH98</f>
         <v>9325000000</v>
       </c>
     </row>
     <row r="113" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA113" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB113" s="51">
+      <c r="AA113" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB113" s="43">
         <f>AB110+AB111-AB112</f>
-        <v>83207643145.154129</v>
+        <v>83612629718.039368</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA114" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB114" s="68">
+      <c r="AA114" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB114" s="50">
         <f>Z34*(1+(5*AF16))</f>
         <v>140966235.27916574</v>
       </c>
     </row>
     <row r="115" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA115" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB115" s="54">
+      <c r="AA115" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB115" s="45">
         <f>AB113/AB114</f>
-        <v>590.26647750343864</v>
+        <v>593.13941067132259</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA116" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB116" s="55">
-        <v>651.28</v>
+      <c r="AA116" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB116" s="70" cm="1">
+        <f t="array" ref="AB116">_FV(A1,"Price")</f>
+        <v>656.4</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB117" s="57">
+      <c r="AA117" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB117" s="47">
         <f>AB115/AB116-1</f>
-        <v>-9.3682475274169841E-2</v>
+        <v>-9.6375059915718153E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB118" s="58" t="str">
+      <c r="AA118" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB118" s="48" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Financials/BlackRock.xlsx
+++ b/Financials/BlackRock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650218E4-07AF-9A43-8ED2-EAB131E3EB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98A88B-D346-8F48-9A0B-78AA12A626A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -982,7 +983,6 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,6 +996,22 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,6 +1023,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1020,28 +1042,7 @@
     <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2439,7 +2440,7 @@
     <v>45022.991158888282</v>
     <v>0</v>
     <v>653.98500000000001</v>
-    <v>98615172960</v>
+    <v>98615160000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
     <v>656.6</v>
@@ -3039,10 +3040,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB116" sqref="AB116"/>
+      <selection pane="bottomRight" activeCell="AC95" sqref="AC95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4617,15 +4618,15 @@
       </c>
       <c r="AG16" s="30">
         <f>AH100/Z3</f>
-        <v>5.5175501012700723</v>
+        <v>5.5175493761539753</v>
       </c>
       <c r="AH16" s="30">
         <f>AH100/Z28</f>
-        <v>19.04503147161066</v>
+        <v>19.04502896871379</v>
       </c>
       <c r="AI16" s="31">
         <f>AH100/Z106</f>
-        <v>22.295992077775267</v>
+        <v>22.29598914763735</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4870,7 +4871,7 @@
       <c r="Z19" s="10">
         <v>6837000000</v>
       </c>
-      <c r="AF19" s="49">
+      <c r="AF19" s="48">
         <f>Z40-Z56-Z61</f>
         <v>5557000000</v>
       </c>
@@ -10029,10 +10030,10 @@
       <c r="Z82" s="1">
         <v>416000000</v>
       </c>
-      <c r="AG82" s="53" t="s">
+      <c r="AG82" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="AH82" s="54"/>
+      <c r="AH82" s="63"/>
     </row>
     <row r="83" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
@@ -10113,10 +10114,10 @@
       <c r="Z83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG83" s="55" t="s">
+      <c r="AG83" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="AH83" s="56"/>
+      <c r="AH83" s="67"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10197,10 +10198,10 @@
       <c r="Z84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG84" s="59" t="s">
+      <c r="AG84" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="AH84" s="60">
+      <c r="AH84" s="51">
         <f>Z17</f>
         <v>212000000</v>
       </c>
@@ -10284,10 +10285,10 @@
       <c r="Z85" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG85" s="59" t="s">
+      <c r="AG85" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="AH85" s="60">
+      <c r="AH85" s="51">
         <f>Z56</f>
         <v>1835000000</v>
       </c>
@@ -10371,10 +10372,10 @@
       <c r="Z86" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG86" s="59" t="s">
+      <c r="AG86" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="AH86" s="60">
+      <c r="AH86" s="51">
         <f>Z61</f>
         <v>7490000000</v>
       </c>
@@ -10458,10 +10459,10 @@
       <c r="Z87" s="10">
         <v>4956000000</v>
       </c>
-      <c r="AG87" s="61" t="s">
+      <c r="AG87" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="AH87" s="62">
+      <c r="AH87" s="53">
         <f>AH84/(AH85+AH86)</f>
         <v>2.2734584450402145E-2</v>
       </c>
@@ -10545,10 +10546,10 @@
       <c r="Z88" s="1">
         <v>-533000000</v>
       </c>
-      <c r="AG88" s="59" t="s">
+      <c r="AG88" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AH88" s="60">
+      <c r="AH88" s="51">
         <f>Z27</f>
         <v>1296000000</v>
       </c>
@@ -10657,10 +10658,10 @@
         <f t="shared" si="19"/>
         <v>2.9821518491579477E-2</v>
       </c>
-      <c r="AG89" s="59" t="s">
+      <c r="AG89" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AH89" s="60">
+      <c r="AH89" s="51">
         <f>Z25</f>
         <v>6290000000</v>
       </c>
@@ -10755,10 +10756,10 @@
       <c r="Z90" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG90" s="61" t="s">
+      <c r="AG90" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AH90" s="62">
+      <c r="AH90" s="53">
         <f>AH88/AH89</f>
         <v>0.20604133545310016</v>
       </c>
@@ -10842,10 +10843,10 @@
       <c r="Z91" s="1">
         <v>-824000000</v>
       </c>
-      <c r="AG91" s="63" t="s">
+      <c r="AG91" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="AH91" s="64">
+      <c r="AH91" s="55">
         <f>AH87*(1-AH90)</f>
         <v>1.8050320309270004E-2</v>
       </c>
@@ -10929,10 +10930,10 @@
       <c r="Z92" s="1">
         <v>242000000</v>
       </c>
-      <c r="AG92" s="65" t="s">
+      <c r="AG92" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="AH92" s="66"/>
+      <c r="AH92" s="65"/>
     </row>
     <row r="93" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -11013,10 +11014,10 @@
       <c r="Z93" s="1">
         <v>-15000000</v>
       </c>
-      <c r="AG93" s="59" t="s">
+      <c r="AG93" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="AH93" s="67">
+      <c r="AH93" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11099,10 +11100,10 @@
       <c r="Z94" s="10">
         <v>-1130000000</v>
       </c>
-      <c r="AG94" s="59" t="s">
+      <c r="AG94" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AH94" s="68" cm="1">
+      <c r="AH94" s="57" cm="1">
         <f t="array" ref="AH94">_FV(A1,"Beta")</f>
         <v>1.2902</v>
       </c>
@@ -11186,10 +11187,10 @@
       <c r="Z95" s="1">
         <v>-750000000</v>
       </c>
-      <c r="AG95" s="59" t="s">
+      <c r="AG95" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="AH95" s="67">
+      <c r="AH95" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11272,10 +11273,10 @@
       <c r="Z96" s="1">
         <v>576000000</v>
       </c>
-      <c r="AG96" s="63" t="s">
+      <c r="AG96" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="AH96" s="64">
+      <c r="AH96" s="55">
         <f>(AH93)+((AH94)*(AH95-AH93))</f>
         <v>9.6493110000000007E-2</v>
       </c>
@@ -11359,10 +11360,10 @@
       <c r="Z97" s="1">
         <v>-2332000000</v>
       </c>
-      <c r="AG97" s="65" t="s">
+      <c r="AG97" s="64" t="s">
         <v>137</v>
       </c>
-      <c r="AH97" s="66"/>
+      <c r="AH97" s="65"/>
     </row>
     <row r="98" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
@@ -11443,10 +11444,10 @@
       <c r="Z98" s="1">
         <v>-2990000000</v>
       </c>
-      <c r="AG98" s="59" t="s">
+      <c r="AG98" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="AH98" s="60">
+      <c r="AH98" s="51">
         <f>AH85+AH86</f>
         <v>9325000000</v>
       </c>
@@ -11530,12 +11531,12 @@
       <c r="Z99" s="1">
         <v>54000000</v>
       </c>
-      <c r="AG99" s="61" t="s">
+      <c r="AG99" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AH99" s="62">
+      <c r="AH99" s="53">
         <f>AH98/AH102</f>
-        <v>8.6390448933740524E-2</v>
+        <v>8.6390459306341594E-2</v>
       </c>
     </row>
     <row r="100" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11617,12 +11618,12 @@
       <c r="Z100" s="10">
         <v>-5442000000</v>
       </c>
-      <c r="AG100" s="59" t="s">
+      <c r="AG100" s="50" t="s">
         <v>140</v>
       </c>
       <c r="AH100" s="43" cm="1">
         <f t="array" ref="AH100">_FV(A1,"Market cap",TRUE)</f>
-        <v>98615172960</v>
+        <v>98615160000</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11704,12 +11705,12 @@
       <c r="Z101" s="1">
         <v>-291000000</v>
       </c>
-      <c r="AG101" s="61" t="s">
+      <c r="AG101" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="AH101" s="62">
+      <c r="AH101" s="53">
         <f>AH100/AH102</f>
-        <v>0.91360955106625952</v>
+        <v>0.91360954069365841</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -11791,12 +11792,12 @@
       <c r="Z102" s="10">
         <v>-1907000000</v>
       </c>
-      <c r="AG102" s="63" t="s">
+      <c r="AG102" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="AH102" s="69">
+      <c r="AH102" s="58">
         <f>AH98+AH100</f>
-        <v>107940172960</v>
+        <v>107940160000</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -11878,10 +11879,10 @@
       <c r="Z103" s="1">
         <v>9340000000</v>
       </c>
-      <c r="AG103" s="55" t="s">
+      <c r="AG103" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="AH103" s="56"/>
+      <c r="AH103" s="67"/>
     </row>
     <row r="104" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -11967,7 +11968,7 @@
       </c>
       <c r="AH104" s="26">
         <f>(AH99*AH91)+(AH101*AH96)</f>
-        <v>8.971640218300285E-2</v>
+        <v>8.9716401369347082E-2</v>
       </c>
     </row>
     <row r="105" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12077,10 +12078,10 @@
       <c r="AD105" s="15"/>
       <c r="AE105" s="15"/>
       <c r="AF105" s="15"/>
-      <c r="AG105" s="57" t="s">
+      <c r="AG105" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="AH105" s="58"/>
+      <c r="AH105" s="69"/>
       <c r="AI105" s="15"/>
       <c r="AJ105" s="15"/>
       <c r="AK105" s="15"/>
@@ -12242,7 +12243,7 @@
       <c r="AD107" s="33"/>
       <c r="AE107" s="36">
         <f>AE106*(1+AH107)/(AH108-AH107)</f>
-        <v>89484272195.766876</v>
+        <v>89484273320.820053</v>
       </c>
       <c r="AF107" s="37" t="s">
         <v>146</v>
@@ -12273,7 +12274,7 @@
       </c>
       <c r="AE108" s="36">
         <f>AE107+AE106</f>
-        <v>95134125999.156677</v>
+        <v>95134127124.209854</v>
       </c>
       <c r="AF108" s="37" t="s">
         <v>142</v>
@@ -12283,14 +12284,14 @@
       </c>
       <c r="AH108" s="41">
         <f>AH104</f>
-        <v>8.971640218300285E-2</v>
+        <v>8.9716401369347082E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AA109" s="51" t="s">
+      <c r="AA109" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="AB109" s="52"/>
+      <c r="AB109" s="61"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AA110" s="42" t="s">
@@ -12298,7 +12299,7 @@
       </c>
       <c r="AB110" s="43">
         <f>NPV(AH108,AA108,AB108,AC108,AD108,AE108)</f>
-        <v>78055629718.039368</v>
+        <v>78055630710.913696</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -12325,14 +12326,14 @@
       </c>
       <c r="AB113" s="43">
         <f>AB110+AB111-AB112</f>
-        <v>83612629718.039368</v>
+        <v>83612630710.913696</v>
       </c>
     </row>
     <row r="114" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA114" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="AB114" s="50">
+      <c r="AB114" s="49">
         <f>Z34*(1+(5*AF16))</f>
         <v>140966235.27916574</v>
       </c>
@@ -12341,34 +12342,34 @@
       <c r="AA115" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="AB115" s="45">
+      <c r="AB115" s="70">
         <f>AB113/AB114</f>
-        <v>593.13941067132259</v>
+        <v>593.13941771467114</v>
       </c>
     </row>
     <row r="116" spans="27:28" ht="20" x14ac:dyDescent="0.25">
       <c r="AA116" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="AB116" s="70" cm="1">
+      <c r="AB116" s="59" cm="1">
         <f t="array" ref="AB116">_FV(A1,"Price")</f>
         <v>656.4</v>
       </c>
     </row>
     <row r="117" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA117" s="46" t="s">
+      <c r="AA117" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="AB117" s="47">
+      <c r="AB117" s="46">
         <f>AB115/AB116-1</f>
-        <v>-9.6375059915718153E-2</v>
+        <v>-9.6375049185449146E-2</v>
       </c>
     </row>
     <row r="118" spans="27:28" ht="20" x14ac:dyDescent="0.25">
-      <c r="AA118" s="46" t="s">
+      <c r="AA118" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="AB118" s="48" t="str">
+      <c r="AB118" s="47" t="str">
         <f>IF(AB115&gt;AB116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Financials/BlackRock.xlsx
+++ b/Financials/BlackRock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Financials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442B563C-C1C6-474E-A7EE-67EF8171D9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D583C40-8813-054E-9302-F6A55ACF4DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -992,11 +992,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1700,11 +1695,11 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1737,10 +1732,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1760,7 +1757,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1773,6 +1770,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1900,11 +1899,11 @@
     <v>Powered by Refinitiv</v>
     <v>781.77</v>
     <v>596.17999999999995</v>
-    <v>1.3435999999999999</v>
-    <v>5.29</v>
-    <v>7.0420000000000005E-3</v>
-    <v>9.44</v>
-    <v>1.2480999999999999E-2</v>
+    <v>1.3694999999999999</v>
+    <v>-0.71</v>
+    <v>-9.525E-4</v>
+    <v>1.27</v>
+    <v>1.7050000000000001E-3</v>
     <v>USD</v>
     <v>BlackRock, Inc. is an investment management company. The Company provides a range of investment management and technology services to institutional and retail clients. Its diverse platform of alpha-seeking active, index and cash management investment strategies across asset classes enables the Company to tailor investment outcomes and asset allocation solutions for clients. The Company's product offerings include single- and multi-asset portfolios investing in equities, fixed income, alternatives and money market instruments. Its products are offered directly and through intermediaries in a range of vehicles, including open-end and closed-end mutual funds, iShares exchange-traded funds (ETFs), separate accounts, collective investment funds and other pooled investment vehicles. The Company also offers technology services, including the investment and risk management technology platform, Aladdin, Aladdin Wealth, eFront, and Cachematrix, as well as advisory services and solutions.</v>
     <v>19900</v>
@@ -1912,25 +1911,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>50 Hudson Yards, NEW YORK, NY, 10001 US</v>
-    <v>761.38</v>
+    <v>747.79</v>
     <v>Investment Banking &amp; Investment Services</v>
     <v>Stock</v>
-    <v>45261.997532858593</v>
+    <v>45269.038794895314</v>
     <v>0</v>
-    <v>748.66</v>
-    <v>111754800000</v>
+    <v>742.22320000000002</v>
+    <v>110787900000</v>
     <v>BLACKROCK, INC.</v>
     <v>BLACKROCK, INC.</v>
-    <v>750</v>
-    <v>21.069900000000001</v>
-    <v>751.23</v>
-    <v>756.52</v>
-    <v>765.79</v>
+    <v>743.15</v>
+    <v>20.907499999999999</v>
+    <v>745.44</v>
+    <v>744.73</v>
+    <v>746</v>
     <v>148762500</v>
     <v>BLK</v>
     <v>BLACKROCK, INC. (XNYS:BLK)</v>
-    <v>746714</v>
-    <v>642514</v>
+    <v>456111</v>
+    <v>674941</v>
     <v>2006</v>
   </rv>
   <rv s="2">
@@ -2095,9 +2094,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14044,7 +14043,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14097,7 +14096,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>111754800000</v>
+        <v>110787900000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -14125,14 +14124,14 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>95454813361.402512</v>
+        <v>94922456008.543106</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="42">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.6942914308826109E-2</v>
+        <v>2.7178058253654054E-2</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>206</v>
@@ -14177,14 +14176,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>85109606920.790848</v>
+        <v>84628169330.178223</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>7.0420000000000005E-3</v>
+        <v>-9.525E-4</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>213</v>
@@ -14229,14 +14228,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>82225606920.790848</v>
+        <v>81744169330.178223</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>756.52</v>
+        <v>744.73</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>220</v>
@@ -14256,7 +14255,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>6.278359550561798</v>
+        <v>6.2240393258426963</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>222</v>
@@ -14284,14 +14283,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>8.945694791626782E-2</v>
+        <v>8.9846486055979155E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>587.36287464104691</v>
+        <v>583.9238174206497</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>226</v>
@@ -14311,14 +14310,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>20.157792207792209</v>
+        <v>19.983387445887445</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>4.6297787656548087E-2</v>
+        <v>4.6701851014415832E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>229</v>
@@ -14345,7 +14344,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.22359901305841623</v>
+        <v>-0.21592547981060295</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>232</v>
@@ -14672,7 +14671,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -14824,7 +14823,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -14907,7 +14906,7 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>111754800000</v>
+        <v>110787900000</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -14919,11 +14918,11 @@
         <v>Investment Banking &amp; Investment Services</v>
       </c>
       <c r="B21" s="120"/>
-      <c r="C21" s="121" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2006</v>
       </c>
-      <c r="D21" s="121"/>
       <c r="E21" s="121"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -14937,7 +14936,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>121472800000</v>
+        <v>120505900000</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -14965,7 +14964,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>8.0001448884030005E-2</v>
+        <v>8.0643354391776667E-2</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -14990,7 +14989,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.91999855111596995</v>
+        <v>0.91935664560822328</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -15034,7 +15033,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.945694791626782E-2</v>
+        <v>8.9846486055979155E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
@@ -15969,8 +15968,8 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:BLK/explorer/revenue_proj" xr:uid="{985982DC-60D9-6F40-B4C1-62F26BC27B64}"/>
